--- a/Plug4_data.xlsx
+++ b/Plug4_data.xlsx
@@ -3392,16 +3392,16 @@
                   <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>0</c:v>
+                  <c:v>1.09</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>0</c:v>
+                  <c:v>1.14</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>0</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>0</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="358">
                   <c:v>0</c:v>
@@ -7722,10 +7722,10 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>3.79</v>
       </c>
       <c r="C356">
-        <v>0</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -7733,10 +7733,10 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="C357">
-        <v>0</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -7744,10 +7744,10 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>4.92</v>
       </c>
       <c r="C358">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -7755,10 +7755,10 @@
         <v>360</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>4.92</v>
       </c>
       <c r="C359">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="360" spans="1:3">
